--- a/pieces/2022-07-17 Henley Erg Test - Copy.xlsx
+++ b/pieces/2022-07-17 Henley Erg Test - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63AB5A-EE9D-4363-A49B-8B4C89292875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB55B6E-F581-4A34-B955-D6076E83F2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Rower</t>
+  </si>
+  <si>
+    <t>Rower 2</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,13 +465,33 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.3148148148148151E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.1944444444444446E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.3182870370370371E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.230324074074074E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0972222222222223E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.3356481481481481E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -752,41 +775,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>'7-17-2022 1000m'!A3</f>
-        <v>0</v>
+        <v>Rower 2</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IF('7-17-2022 1000m'!B3&lt;&gt;"","y","n")</f>
-        <v>n</v>
-      </c>
-      <c r="C3" s="1" t="str">
+        <v>y</v>
+      </c>
+      <c r="C3" s="1">
         <f>IF('7-17-2022 1000m'!C3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!C3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!C3), "")</f>
-        <v/>
-      </c>
-      <c r="D3" s="1" t="str">
+        <v>2.2119297645198811E-3</v>
+      </c>
+      <c r="D3" s="1">
         <f>IF('7-17-2022 1000m'!D3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!D3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!D3), "")</f>
-        <v/>
-      </c>
-      <c r="E3" s="1" t="str">
+        <v>1.1413557584922587E-3</v>
+      </c>
+      <c r="E3" s="1">
         <f>IF('7-17-2022 1000m'!E3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!E3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!E3), "")</f>
-        <v/>
-      </c>
-      <c r="F3" s="1" t="str">
+        <v>1.2276210193085339E-3</v>
+      </c>
+      <c r="F3" s="1">
         <f>IF('7-17-2022 1000m'!F3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!F3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!F3), "")</f>
-        <v/>
-      </c>
-      <c r="G3" s="1" t="str">
+        <v>1.2596940008940721E-3</v>
+      </c>
+      <c r="G3" s="1">
         <f>IF('7-17-2022 1000m'!G3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!G3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!G3), "")</f>
-        <v/>
-      </c>
-      <c r="H3" s="1" t="str">
+        <v>1.1756406698423165E-3</v>
+      </c>
+      <c r="H3" s="1">
         <f>IF('7-17-2022 1000m'!H3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!H3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!H3), "")</f>
-        <v/>
-      </c>
-      <c r="I3" s="1" t="str">
+        <v>1.0484547083824236E-3</v>
+      </c>
+      <c r="I3" s="1">
         <f>IF('7-17-2022 1000m'!I3&lt;&gt;"", IF('7-17-2022 1000m'!$B3&lt;&gt;"",'7-17-2022 1000m'!I3*POWER('7-17-2022 1000m'!$B3/270,0.222),'7-17-2022 1000m'!I3), "")</f>
-        <v/>
+        <v>1.2762834741279713E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
